--- a/photo_Produtores.xlsx
+++ b/photo_Produtores.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>ENGAJAD@</t>
+  </si>
+  <si>
+    <t>NAO ENGAJAD@</t>
   </si>
   <si>
     <t>Regiao</t>
@@ -316,10 +319,10 @@
         <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -361,19 +364,19 @@
         <v>44</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2" s="0"/>
     </row>
@@ -416,7 +419,7 @@
         <v>44</v>
       </c>
       <c r="N3" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -428,7 +431,7 @@
         <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S3" s="0"/>
     </row>
@@ -483,7 +486,7 @@
         <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S4" s="0"/>
     </row>
@@ -538,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S5" s="0"/>
     </row>
@@ -581,7 +584,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
@@ -593,7 +596,7 @@
         <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" s="0"/>
     </row>
@@ -636,19 +639,19 @@
         <v>44</v>
       </c>
       <c r="N7" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S7" s="0"/>
     </row>
@@ -691,19 +694,19 @@
         <v>44</v>
       </c>
       <c r="N8" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
         <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S8" s="0"/>
     </row>
@@ -746,7 +749,7 @@
         <v>44</v>
       </c>
       <c r="N9" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
@@ -758,7 +761,7 @@
         <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S9" s="0"/>
     </row>
@@ -798,10 +801,10 @@
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -810,10 +813,10 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S10" s="0"/>
     </row>
@@ -856,19 +859,19 @@
         <v>44</v>
       </c>
       <c r="N11" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
         <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S11" s="0"/>
     </row>
@@ -911,7 +914,7 @@
         <v>44</v>
       </c>
       <c r="N12" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
@@ -923,7 +926,7 @@
         <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S12" s="0"/>
     </row>
@@ -966,19 +969,19 @@
         <v>44</v>
       </c>
       <c r="N13" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
         <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S13" s="0"/>
     </row>
@@ -1033,7 +1036,7 @@
         <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S14" s="0"/>
     </row>
@@ -1076,19 +1079,19 @@
         <v>44</v>
       </c>
       <c r="N15" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S15" s="0"/>
     </row>
@@ -1131,19 +1134,19 @@
         <v>44</v>
       </c>
       <c r="N16" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
         <v>64</v>
       </c>
       <c r="R16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S16" s="0"/>
     </row>

--- a/photo_Produtores.xlsx
+++ b/photo_Produtores.xlsx
@@ -13,17 +13,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>C_1097</t>
+  </si>
+  <si>
+    <t>C_1105</t>
+  </si>
+  <si>
+    <t>C_1104</t>
+  </si>
+  <si>
+    <t>C_1090</t>
+  </si>
+  <si>
+    <t>C_1102</t>
+  </si>
+  <si>
+    <t>C_1106</t>
+  </si>
+  <si>
     <t>C_1078</t>
   </si>
   <si>
+    <t>C_1088</t>
+  </si>
+  <si>
     <t>C_1071</t>
   </si>
   <si>
+    <t>C_1108</t>
+  </si>
+  <si>
     <t>C_1124</t>
   </si>
   <si>
@@ -33,15 +57,27 @@
     <t>C_1115</t>
   </si>
   <si>
+    <t>C_1099</t>
+  </si>
+  <si>
     <t>C_1074</t>
   </si>
   <si>
+    <t>C_1079</t>
+  </si>
+  <si>
     <t>C_1084</t>
   </si>
   <si>
+    <t>C_3001</t>
+  </si>
+  <si>
     <t>C_1122</t>
   </si>
   <si>
+    <t>C_1087</t>
+  </si>
+  <si>
     <t>C_1126</t>
   </si>
   <si>
@@ -51,27 +87,63 @@
     <t>C_1073</t>
   </si>
   <si>
+    <t>C_1107</t>
+  </si>
+  <si>
     <t>C_1085</t>
   </si>
   <si>
+    <t>C_3000</t>
+  </si>
+  <si>
     <t>C_1082</t>
   </si>
   <si>
     <t>C_1117</t>
   </si>
   <si>
+    <t>C_3002</t>
+  </si>
+  <si>
+    <t>C_1072</t>
+  </si>
+  <si>
     <t>C_1081</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
+    <t>ADELIA MANUEL</t>
+  </si>
+  <si>
+    <t>AMELIA DAVID BANDO</t>
+  </si>
+  <si>
+    <t>AMELIA FERNANDO MURIRO</t>
+  </si>
+  <si>
+    <t>ANA MANGUIZA</t>
+  </si>
+  <si>
+    <t>CATARINA ALBERTO</t>
+  </si>
+  <si>
+    <t>CECILIA CHAMUSSE</t>
+  </si>
+  <si>
     <t>ELIAS JULAI</t>
   </si>
   <si>
+    <t>FATIMA SAIZE</t>
+  </si>
+  <si>
     <t>FERNANDO MURIRO</t>
   </si>
   <si>
+    <t>GRECE ALBERTO SAIZE</t>
+  </si>
+  <si>
     <t>JEREMIAS PAULO</t>
   </si>
   <si>
@@ -81,15 +153,27 @@
     <t>JOAQUIM SAIZE</t>
   </si>
   <si>
+    <t>LAURINDA MATEUS SABONETE</t>
+  </si>
+  <si>
     <t>LAURINDA SABAO</t>
   </si>
   <si>
+    <t>LUISA FERNANDO</t>
+  </si>
+  <si>
     <t>MANUEL BENJAMIM</t>
   </si>
   <si>
+    <t>MARIA SIMBULANE</t>
+  </si>
+  <si>
     <t>MARIO FERNANDO</t>
   </si>
   <si>
+    <t>MARTA BRAUNDE</t>
+  </si>
+  <si>
     <t>MASSADA BENJAMIM</t>
   </si>
   <si>
@@ -99,15 +183,27 @@
     <t>MOISES TAUNDE</t>
   </si>
   <si>
+    <t>NORA JOAO</t>
+  </si>
+  <si>
     <t>PAULO MASTIQUE</t>
   </si>
   <si>
+    <t>REGINA JEQUE</t>
+  </si>
+  <si>
     <t>ROBATE TAUNDE CHIGOROGORO</t>
   </si>
   <si>
     <t>ROBERTO SABAO</t>
   </si>
   <si>
+    <t>SARA SEDA</t>
+  </si>
+  <si>
+    <t>SOFIA ARMANDO</t>
+  </si>
+  <si>
     <t>ZACARIA BAHERA</t>
   </si>
   <si>
@@ -117,12 +213,12 @@
     <t>Sexo</t>
   </si>
   <si>
+    <t>FEMININO</t>
+  </si>
+  <si>
     <t>MASCULINO</t>
   </si>
   <si>
-    <t>FEMININO</t>
-  </si>
-  <si>
     <t>Comunidade</t>
   </si>
   <si>
@@ -132,15 +228,18 @@
     <t>Turma</t>
   </si>
   <si>
+    <t>AP-1</t>
+  </si>
+  <si>
+    <t>AP-2</t>
+  </si>
+  <si>
     <t>AP-5</t>
   </si>
   <si>
     <t>AP-6</t>
   </si>
   <si>
-    <t>AP-1</t>
-  </si>
-  <si>
     <t>Membro_Influente</t>
   </si>
   <si>
@@ -163,6 +262,9 @@
   </si>
   <si>
     <t>FACILITADOR DO PARQUE</t>
+  </si>
+  <si>
+    <t>MEMBRO DA OMM</t>
   </si>
   <si>
     <t>NEGOCIANTE</t>
@@ -263,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -271,58 +373,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -330,53 +432,51 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="0">
-        <v>60</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C2" s="0"/>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N2" s="0">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S2" s="0"/>
     </row>
@@ -385,53 +485,53 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N3" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S3" s="0"/>
     </row>
@@ -440,53 +540,53 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="N4" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S4" s="0"/>
     </row>
@@ -495,53 +595,51 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C5" s="0"/>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N5" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S5" s="0"/>
     </row>
@@ -550,53 +648,51 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0">
-        <v>52</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N6" s="0">
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S6" s="0"/>
     </row>
@@ -605,53 +701,51 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C7" s="0"/>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N7" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S7" s="0"/>
     </row>
@@ -660,53 +754,53 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N8" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S8" s="0"/>
     </row>
@@ -715,53 +809,53 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N9" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S9" s="0"/>
     </row>
@@ -770,53 +864,53 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N10" s="0">
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="R10" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S10" s="0"/>
     </row>
@@ -825,53 +919,53 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N11" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S11" s="0"/>
     </row>
@@ -880,53 +974,53 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R12" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S12" s="0"/>
     </row>
@@ -935,53 +1029,53 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J13" s="0"/>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N13" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S13" s="0"/>
     </row>
@@ -990,53 +1084,53 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J14" s="0"/>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N14" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R14" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S14" s="0"/>
     </row>
@@ -1045,53 +1139,51 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C15" s="0"/>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J15" s="0"/>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N15" s="0">
         <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="R15" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="S15" s="0"/>
     </row>
@@ -1100,55 +1192,933 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J16" s="0"/>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N16" s="0">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="0">
         <v>5</v>
       </c>
-      <c r="O16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="0">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="0"/>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="0">
+        <v>7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="0">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="0">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="0">
+        <v>5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="0">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="0">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="0">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="0">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="0">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="0">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" t="s">
+        <v>101</v>
+      </c>
+      <c r="S23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="0">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="0">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" t="s">
+        <v>101</v>
+      </c>
+      <c r="S24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="0">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="0">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" t="s">
+        <v>101</v>
+      </c>
+      <c r="S25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="0"/>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="0">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" t="s">
+        <v>101</v>
+      </c>
+      <c r="S26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="0">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="0">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="0">
+        <v>7</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="0">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="0"/>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="0">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" t="s">
+        <v>101</v>
+      </c>
+      <c r="S28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="0">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="0"/>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="0">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="0">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="0">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" t="s">
+        <v>101</v>
+      </c>
+      <c r="S30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="0">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="0"/>
+      <c r="K31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="0">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" t="s">
+        <v>101</v>
+      </c>
+      <c r="S31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="0">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="0"/>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="0">
+        <v>7</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S32" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/photo_Produtores.xlsx
+++ b/photo_Produtores.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -21,30 +21,69 @@
     <t>C_1097</t>
   </si>
   <si>
+    <t>C_1169</t>
+  </si>
+  <si>
     <t>C_1105</t>
   </si>
   <si>
     <t>C_1104</t>
   </si>
   <si>
+    <t>C_1174</t>
+  </si>
+  <si>
     <t>C_1090</t>
   </si>
   <si>
+    <t>C_1178</t>
+  </si>
+  <si>
+    <t>C_1135</t>
+  </si>
+  <si>
     <t>C_1102</t>
   </si>
   <si>
+    <t>C_1156</t>
+  </si>
+  <si>
     <t>C_1106</t>
   </si>
   <si>
+    <t>C_1163</t>
+  </si>
+  <si>
+    <t>C_1134</t>
+  </si>
+  <si>
+    <t>C_1167</t>
+  </si>
+  <si>
+    <t>C_1154</t>
+  </si>
+  <si>
+    <t>C_1140</t>
+  </si>
+  <si>
     <t>C_1078</t>
   </si>
   <si>
+    <t>C_1159</t>
+  </si>
+  <si>
     <t>C_1088</t>
   </si>
   <si>
     <t>C_1071</t>
   </si>
   <si>
+    <t>C_1168</t>
+  </si>
+  <si>
+    <t>C_1137</t>
+  </si>
+  <si>
     <t>C_1108</t>
   </si>
   <si>
@@ -60,7 +99,7 @@
     <t>C_1099</t>
   </si>
   <si>
-    <t>C_1074</t>
+    <t>C_1114</t>
   </si>
   <si>
     <t>C_1079</t>
@@ -75,6 +114,9 @@
     <t>C_1122</t>
   </si>
   <si>
+    <t>C_1170</t>
+  </si>
+  <si>
     <t>C_1087</t>
   </si>
   <si>
@@ -84,9 +126,15 @@
     <t>C_1080</t>
   </si>
   <si>
+    <t>C_1130</t>
+  </si>
+  <si>
     <t>C_1073</t>
   </si>
   <si>
+    <t>C_1138</t>
+  </si>
+  <si>
     <t>C_1107</t>
   </si>
   <si>
@@ -96,18 +144,33 @@
     <t>C_3000</t>
   </si>
   <si>
+    <t>C_1177</t>
+  </si>
+  <si>
     <t>C_1082</t>
   </si>
   <si>
     <t>C_1117</t>
   </si>
   <si>
+    <t>C_1136</t>
+  </si>
+  <si>
+    <t>C_1160</t>
+  </si>
+  <si>
     <t>C_3002</t>
   </si>
   <si>
+    <t>C_1153</t>
+  </si>
+  <si>
     <t>C_1072</t>
   </si>
   <si>
+    <t>C_1172</t>
+  </si>
+  <si>
     <t>C_1081</t>
   </si>
   <si>
@@ -117,30 +180,69 @@
     <t>ADELIA MANUEL</t>
   </si>
   <si>
+    <t>AIRINE ANDRE</t>
+  </si>
+  <si>
     <t>AMELIA DAVID BANDO</t>
   </si>
   <si>
     <t>AMELIA FERNANDO MURIRO</t>
   </si>
   <si>
+    <t>ANA KHENASSE</t>
+  </si>
+  <si>
     <t>ANA MANGUIZA</t>
   </si>
   <si>
+    <t>ANA PANGUIDZAI</t>
+  </si>
+  <si>
+    <t>ANOROD ANTONIO</t>
+  </si>
+  <si>
     <t>CATARINA ALBERTO</t>
   </si>
   <si>
+    <t>CATARINA SIMBISSONE</t>
+  </si>
+  <si>
     <t>CECILIA CHAMUSSE</t>
   </si>
   <si>
+    <t>CHAILET PITA</t>
+  </si>
+  <si>
+    <t>COLEN CHIRUME</t>
+  </si>
+  <si>
+    <t>CRISTINA TAPARATSI</t>
+  </si>
+  <si>
+    <t>DIOLINDA DAVID</t>
+  </si>
+  <si>
+    <t>DOCA ELIAS</t>
+  </si>
+  <si>
     <t>ELIAS JULAI</t>
   </si>
   <si>
+    <t>ESTA MATANDA</t>
+  </si>
+  <si>
     <t>FATIMA SAIZE</t>
   </si>
   <si>
     <t>FERNANDO MURIRO</t>
   </si>
   <si>
+    <t>GENNY MATEUS</t>
+  </si>
+  <si>
+    <t>GLEDISSE PEDRO</t>
+  </si>
+  <si>
     <t>GRECE ALBERTO SAIZE</t>
   </si>
   <si>
@@ -171,6 +273,9 @@
     <t>MARIO FERNANDO</t>
   </si>
   <si>
+    <t>MARTA ANDRE</t>
+  </si>
+  <si>
     <t>MARTA BRAUNDE</t>
   </si>
   <si>
@@ -180,9 +285,15 @@
     <t>MEMBA MABONE</t>
   </si>
   <si>
+    <t>MICHEQUE MASSITEMBA CHISSICO</t>
+  </si>
+  <si>
     <t>MOISES TAUNDE</t>
   </si>
   <si>
+    <t>NEIVES SIMBISSON</t>
+  </si>
+  <si>
     <t>NORA JOAO</t>
   </si>
   <si>
@@ -192,18 +303,33 @@
     <t>REGINA JEQUE</t>
   </si>
   <si>
+    <t>RITA EUGENIO</t>
+  </si>
+  <si>
     <t>ROBATE TAUNDE CHIGOROGORO</t>
   </si>
   <si>
     <t>ROBERTO SABAO</t>
   </si>
   <si>
+    <t>ROSA ROBETY</t>
+  </si>
+  <si>
+    <t>RUNICA ZIANAI</t>
+  </si>
+  <si>
     <t>SARA SEDA</t>
   </si>
   <si>
+    <t>SITEN FILIPE</t>
+  </si>
+  <si>
     <t>SOFIA ARMANDO</t>
   </si>
   <si>
+    <t>VERONICA MOISES</t>
+  </si>
+  <si>
     <t>ZACARIA BAHERA</t>
   </si>
   <si>
@@ -225,36 +351,54 @@
     <t>CHIMANIMANI-MPUNGA</t>
   </si>
   <si>
+    <t>CHIMANIMANI-MUSSAPA</t>
+  </si>
+  <si>
     <t>Turma</t>
   </si>
   <si>
     <t>AP-1</t>
   </si>
   <si>
+    <t>AP-4</t>
+  </si>
+  <si>
     <t>AP-2</t>
   </si>
   <si>
+    <t>AP-7</t>
+  </si>
+  <si>
+    <t>AP-3</t>
+  </si>
+  <si>
     <t>AP-5</t>
   </si>
   <si>
     <t>AP-6</t>
   </si>
   <si>
+    <t>AP-8</t>
+  </si>
+  <si>
     <t>Membro_Influente</t>
   </si>
   <si>
     <t>NAO</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>SIM</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Tipo_influencia</t>
   </si>
   <si>
+    <t>AVICULTOR</t>
+  </si>
+  <si>
     <t>PONTO DE REFERENCIA DA CASA DO MEL</t>
   </si>
   <si>
@@ -279,6 +423,9 @@
     <t>CHEFE DE 10 CASAS</t>
   </si>
   <si>
+    <t>CHEFE DE 15 CASAS</t>
+  </si>
+  <si>
     <t>PRODUTOR DE PENEIRAS DE BAMBU</t>
   </si>
   <si>
@@ -319,9 +466,6 @@
   </si>
   <si>
     <t>CHIMANIMANI</t>
-  </si>
-  <si>
-    <t>ProdutorLider1SIM0não</t>
   </si>
 </sst>
 </file>
@@ -365,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -373,58 +517,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="O1" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -432,1693 +573,2824 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N2" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1</v>
+      </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N3" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="N4" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S4" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>57</v>
+      </c>
+      <c r="C5" s="0">
+        <v>20</v>
+      </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N5" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="0"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="0">
+        <v>40</v>
+      </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J6" s="0">
+        <v>1</v>
+      </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N6" s="0">
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N7" s="0">
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J8" s="0">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N8" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S8" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N9" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="0">
         <v>62</v>
       </c>
+      <c r="C10" s="0"/>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N10" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J11" s="0">
+        <v>5</v>
+      </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N11" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="0">
-        <v>26</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C12" s="0"/>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N12" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q12" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S12" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="0">
-        <v>38</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C13" s="0"/>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J13" s="0">
+        <v>5</v>
+      </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N13" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S13" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="J14" s="0"/>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N14" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R14" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="C15" s="0">
+        <v>43</v>
+      </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J15" s="0">
+        <v>1</v>
+      </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q15" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C16" s="0">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J16" s="0">
+        <v>5</v>
+      </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N16" s="0">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R16" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="0">
+        <v>42</v>
+      </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J17" s="0">
+        <v>5</v>
+      </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N17" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="J18" s="0"/>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N18" s="0">
         <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J19" s="0">
+        <v>3</v>
+      </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N19" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P19" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N20" s="0">
         <v>5</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Q20" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R20" t="s">
-        <v>101</v>
-      </c>
-      <c r="S20" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="0"/>
+        <v>73</v>
+      </c>
+      <c r="C21" s="0">
+        <v>62</v>
+      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="0">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J21" s="0"/>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N21" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="Q21" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R21" t="s">
-        <v>101</v>
-      </c>
-      <c r="S21" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="J22" s="0">
+        <v>1</v>
+      </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N22" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q22" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R22" t="s">
-        <v>101</v>
-      </c>
-      <c r="S22" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="0"/>
+        <v>125</v>
+      </c>
+      <c r="J23" s="0">
+        <v>5</v>
+      </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N23" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
-      </c>
-      <c r="S23" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C24" s="0">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J24" s="0"/>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N24" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C25" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J25" s="0"/>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N25" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Q25" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R25" t="s">
-        <v>101</v>
-      </c>
-      <c r="S25" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C26" s="0">
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="J26" s="0"/>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N26" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R26" t="s">
-        <v>101</v>
-      </c>
-      <c r="S26" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="0">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J27" s="0"/>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="M27" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N27" s="0">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P27" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R27" t="s">
-        <v>101</v>
-      </c>
-      <c r="S27" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="0">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C28" s="0"/>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J28" s="0"/>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N28" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P28" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Q28" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R28" t="s">
-        <v>101</v>
-      </c>
-      <c r="S28" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J29" s="0"/>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="M29" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N29" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Q29" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R29" t="s">
-        <v>101</v>
-      </c>
-      <c r="S29" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="0">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J30" s="0"/>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N30" s="0">
         <v>5</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="Q30" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R30" t="s">
-        <v>101</v>
-      </c>
-      <c r="S30" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="J31" s="0"/>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N31" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P31" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R31" t="s">
-        <v>101</v>
-      </c>
-      <c r="S31" s="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="0">
-        <v>57</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C32" s="0"/>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="J32" s="0"/>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M32" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N32" s="0">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="0">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="0"/>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="0">
         <v>7</v>
       </c>
-      <c r="O32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="O33" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>147</v>
+      </c>
+      <c r="R33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="0">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="0">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="0">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>147</v>
+      </c>
+      <c r="R34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="0"/>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="0">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="0">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="0">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="0"/>
+      <c r="K36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="0">
+        <v>6</v>
+      </c>
+      <c r="O36" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>147</v>
+      </c>
+      <c r="R36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="0">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="0"/>
+      <c r="K37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="0">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>147</v>
+      </c>
+      <c r="R37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="0">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="0"/>
+      <c r="K38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="0">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="0">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="0"/>
+      <c r="K39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39" s="0">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>147</v>
+      </c>
+      <c r="R39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="0">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="0">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="0">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>147</v>
+      </c>
+      <c r="R40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="0">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="0"/>
+      <c r="K41" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="0">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>147</v>
+      </c>
+      <c r="R41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="0">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="0"/>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="0">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>147</v>
+      </c>
+      <c r="R42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="0">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="0">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="0">
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>147</v>
+      </c>
+      <c r="R43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="0">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="0">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" s="0">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>147</v>
+      </c>
+      <c r="R44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="0">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="0"/>
+      <c r="K45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="0">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>147</v>
+      </c>
+      <c r="R45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="R32" t="s">
+      <c r="C46" s="0">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="0"/>
+      <c r="K46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" t="s">
+        <v>125</v>
+      </c>
+      <c r="N46" s="0">
+        <v>7</v>
+      </c>
+      <c r="O46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>147</v>
+      </c>
+      <c r="R46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="0">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="0">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" t="s">
+        <v>125</v>
+      </c>
+      <c r="N47" s="0">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>147</v>
+      </c>
+      <c r="R47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="0"/>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" s="0">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" t="s">
+        <v>125</v>
+      </c>
+      <c r="N48" s="0">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>147</v>
+      </c>
+      <c r="R48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="0">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" t="s">
+        <v>125</v>
+      </c>
+      <c r="N49" s="0">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>147</v>
+      </c>
+      <c r="R49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="0">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="0"/>
+      <c r="K50" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" s="0">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>147</v>
+      </c>
+      <c r="R50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="0">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="0"/>
+      <c r="K51" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" t="s">
+        <v>123</v>
+      </c>
+      <c r="M51" t="s">
+        <v>125</v>
+      </c>
+      <c r="N51" s="0">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>147</v>
+      </c>
+      <c r="R51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="0">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="0">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="0">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>147</v>
+      </c>
+      <c r="R52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="0">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="0"/>
+      <c r="K53" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="0">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>147</v>
+      </c>
+      <c r="R53" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/photo_Produtores.xlsx
+++ b/photo_Produtores.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>nivel_engajamento</t>
-  </si>
-  <si>
-    <t>ENGAJAD@</t>
   </si>
   <si>
     <t>Regiao</t>
@@ -199,10 +196,10 @@
         <v>24</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -241,22 +238,22 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
         <v>19</v>
       </c>
       <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
         <v>14</v>

--- a/photo_Produtores.xlsx
+++ b/photo_Produtores.xlsx
@@ -13,20 +13,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>C_1105</t>
+  </si>
+  <si>
+    <t>C_1104</t>
+  </si>
+  <si>
+    <t>C_1106</t>
+  </si>
+  <si>
+    <t>C_1108</t>
+  </si>
+  <si>
     <t>C_1074</t>
   </si>
   <si>
+    <t>C_3001</t>
+  </si>
+  <si>
+    <t>C_1107</t>
+  </si>
+  <si>
+    <t>C_3000</t>
+  </si>
+  <si>
+    <t>C_3002</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
+    <t>AMELIA DAVID BANDO</t>
+  </si>
+  <si>
+    <t>AMELIA FERNANDO MURIRO</t>
+  </si>
+  <si>
+    <t>CECILIA CHAMUSSE</t>
+  </si>
+  <si>
+    <t>GRECE ALBERTO SAIZE</t>
+  </si>
+  <si>
     <t>LAURINDA SABAO</t>
   </si>
   <si>
+    <t>MARIA SIMBULANE</t>
+  </si>
+  <si>
+    <t>NORA JOAO</t>
+  </si>
+  <si>
+    <t>REGINA JEQUE</t>
+  </si>
+  <si>
+    <t>SARA SEDA</t>
+  </si>
+  <si>
     <t>Idade</t>
   </si>
   <si>
@@ -45,6 +93,9 @@
     <t>Turma</t>
   </si>
   <si>
+    <t>AP-2</t>
+  </si>
+  <si>
     <t>AP-1</t>
   </si>
   <si>
@@ -63,6 +114,9 @@
     <t>ProdutorLider</t>
   </si>
   <si>
+    <t>SIM</t>
+  </si>
+  <si>
     <t>Tempo_produtor</t>
   </si>
   <si>
@@ -72,9 +126,6 @@
     <t>Familia_Beneficiario</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
     <t>presenca</t>
   </si>
   <si>
@@ -88,6 +139,9 @@
   </si>
   <si>
     <t>nivel_engajamento</t>
+  </si>
+  <si>
+    <t>ENGAJAD@</t>
   </si>
   <si>
     <t>Regiao</t>
@@ -140,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -148,58 +202,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -207,56 +261,510 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="0">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C3" s="0">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="0"/>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="0">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="0"/>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="0"/>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="0">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="0">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="0">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
-        <v>14</v>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="0">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="0">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
